--- a/python--deployment-metric-parser/examples/Playbook_3.xlsx
+++ b/python--deployment-metric-parser/examples/Playbook_3.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31400" yWindow="5980" windowWidth="33000" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="32800" yWindow="19060" windowWidth="33000" windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="Playbook" sheetId="1" r:id="rId2"/>
-    <sheet name="Task States" sheetId="3" r:id="rId3"/>
+    <sheet name="Meta" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>Step</t>
   </si>
@@ -279,13 +279,28 @@
   </si>
   <si>
     <t>This was interesting</t>
+  </si>
+  <si>
+    <t>Estimated Start Date</t>
+  </si>
+  <si>
+    <t>Actual Start Date</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Task States</t>
+  </si>
+  <si>
+    <t>Template Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,6 +312,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,10 +363,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -365,8 +407,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -644,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,28 +838,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="22" style="5" customWidth="1"/>
-    <col min="11" max="11" width="38.6640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="44" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="17.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="22" style="5" customWidth="1"/>
+    <col min="13" max="13" width="38.6640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -817,35 +870,41 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -855,28 +914,34 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10">
+        <v>43106</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>0.46875</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="14">
+        <v>43106</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -886,26 +951,32 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="10">
+        <v>43106</v>
+      </c>
+      <c r="E3" s="6">
         <v>0.46875</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5">
+      <c r="I3" s="14">
+        <v>43106</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5">
         <v>12</v>
       </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -915,27 +986,33 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10">
+        <v>43106</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="14">
+        <v>43106</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -945,27 +1022,33 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10">
+        <v>43106</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="14">
+        <v>43106</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -975,27 +1058,33 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
+        <v>43106</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="14">
+        <v>43106</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1005,26 +1094,32 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10">
+        <v>43106</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="5">
+      <c r="I7" s="14">
+        <v>43106</v>
+      </c>
+      <c r="L7" s="5">
         <v>15</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1034,27 +1129,33 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10">
+        <v>43106</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="14">
+        <v>43106</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1064,30 +1165,36 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10">
+        <v>43106</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="14">
+        <v>43106</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1097,27 +1204,33 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="10">
+        <v>43107</v>
+      </c>
+      <c r="E10" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="14">
+        <v>43106</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1127,84 +1240,90 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10">
+        <v>43107</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="14">
+        <v>43106</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L27" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Task States'!$A$1:$A$4</xm:f>
+            <xm:f>Meta!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1000</xm:sqref>
+          <xm:sqref>H2:H1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1214,29 +1333,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/python--deployment-metric-parser/examples/Playbook_3.xlsx
+++ b/python--deployment-metric-parser/examples/Playbook_3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32800" yWindow="19060" windowWidth="33000" windowHeight="14540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-33000" yWindow="460" windowWidth="33000" windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -842,7 +842,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1318,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Meta!$A$2:$A$5</xm:f>
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
